--- a/Document/report/Testcase.xlsx
+++ b/Document/report/Testcase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-32980" yWindow="2480" windowWidth="25600" windowHeight="14700"/>
+    <workbookView xWindow="-32980" yWindow="2480" windowWidth="32960" windowHeight="18660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="148">
   <si>
     <t>Test Suite</t>
   </si>
@@ -972,12 +972,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="95">
@@ -1377,7 +1377,7 @@
   <dimension ref="A1:J58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F14" sqref="F14:F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1393,13 +1393,13 @@
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="14"/>
+      <c r="E1" s="16"/>
       <c r="F1" s="4"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
       <c r="I1" s="6"/>
       <c r="J1" s="4"/>
     </row>
@@ -1412,11 +1412,11 @@
       </c>
       <c r="E2" s="8">
         <f>SUM(E3:E6)</f>
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="F2" s="4"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
       <c r="I2" s="6"/>
       <c r="J2" s="4"/>
     </row>
@@ -1429,11 +1429,11 @@
       </c>
       <c r="E3" s="8">
         <f>COUNTIF(F13:F738,D3)</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F3" s="4"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
       <c r="I3" s="6"/>
       <c r="J3" s="4"/>
     </row>
@@ -1446,11 +1446,11 @@
       </c>
       <c r="E4" s="10">
         <f>COUNTIF(F14:F739,D4)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F4" s="4"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
       <c r="I4" s="6"/>
       <c r="J4" s="4"/>
     </row>
@@ -1463,11 +1463,11 @@
       </c>
       <c r="E5" s="8">
         <f>COUNTIF(F14:F740,D5)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="4"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
       <c r="I5" s="6"/>
       <c r="J5" s="4"/>
     </row>
@@ -1480,11 +1480,11 @@
       </c>
       <c r="E6" s="8">
         <f>COUNTIF(F14:F741,D6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="4"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
       <c r="I6" s="6"/>
       <c r="J6" s="4"/>
     </row>
@@ -1497,11 +1497,11 @@
       </c>
       <c r="E7" s="8">
         <f>SUM(E3:E5)</f>
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="F7" s="4"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
       <c r="I7" s="6"/>
       <c r="J7" s="4"/>
     </row>
@@ -1514,8 +1514,8 @@
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
       <c r="I8" s="6"/>
       <c r="J8" s="4"/>
     </row>
@@ -1528,8 +1528,8 @@
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
       <c r="I9" s="6"/>
       <c r="J9" s="4"/>
     </row>
@@ -1542,8 +1542,8 @@
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
       <c r="I10" s="6"/>
       <c r="J10" s="4"/>
     </row>
@@ -1568,727 +1568,636 @@
       </c>
     </row>
     <row r="14" spans="1:10" s="12" customFormat="1" ht="56">
-      <c r="A14" s="16"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="16"/>
+      <c r="C14" s="15"/>
       <c r="D14" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="16" t="s">
-        <v>8</v>
-      </c>
+      <c r="F14" s="15"/>
     </row>
     <row r="15" spans="1:10" s="12" customFormat="1" ht="98">
-      <c r="A15" s="16"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="16"/>
+      <c r="C15" s="15"/>
       <c r="D15" s="4" t="s">
         <v>61</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="16" t="s">
-        <v>8</v>
-      </c>
+      <c r="F15" s="15"/>
     </row>
     <row r="16" spans="1:10" s="12" customFormat="1" ht="45">
-      <c r="A16" s="16"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="16"/>
+      <c r="C16" s="15"/>
       <c r="D16" s="4" t="s">
         <v>54</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="16" t="s">
-        <v>8</v>
-      </c>
+      <c r="F16" s="15"/>
     </row>
     <row r="17" spans="1:6" s="12" customFormat="1" ht="42">
-      <c r="A17" s="16"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="16"/>
+      <c r="C17" s="15"/>
       <c r="D17" s="4" t="s">
         <v>56</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F17" s="16" t="s">
-        <v>8</v>
-      </c>
+      <c r="F17" s="15"/>
     </row>
     <row r="18" spans="1:6" s="12" customFormat="1" ht="70">
-      <c r="A18" s="16"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="16"/>
+      <c r="C18" s="15"/>
       <c r="D18" s="4" t="s">
         <v>58</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="16" t="s">
-        <v>8</v>
-      </c>
+      <c r="F18" s="15"/>
     </row>
     <row r="19" spans="1:6" s="12" customFormat="1" ht="84">
-      <c r="A19" s="16"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="16"/>
+      <c r="C19" s="15"/>
       <c r="D19" s="4" t="s">
         <v>62</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="16" t="s">
-        <v>8</v>
-      </c>
+      <c r="F19" s="15"/>
     </row>
     <row r="20" spans="1:6" s="12" customFormat="1" ht="30">
-      <c r="A20" s="16"/>
+      <c r="A20" s="15"/>
       <c r="B20" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16" t="s">
-        <v>8</v>
-      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
     </row>
     <row r="21" spans="1:6" s="12" customFormat="1" ht="56">
-      <c r="A21" s="16"/>
+      <c r="A21" s="15"/>
       <c r="B21" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="16"/>
+      <c r="C21" s="15"/>
       <c r="D21" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="F21" s="16" t="s">
-        <v>8</v>
-      </c>
+      <c r="F21" s="15"/>
     </row>
     <row r="22" spans="1:6" s="12" customFormat="1" ht="56">
-      <c r="A22" s="16"/>
+      <c r="A22" s="15"/>
       <c r="B22" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="16"/>
+      <c r="C22" s="15"/>
       <c r="D22" s="4" t="s">
         <v>66</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F22" s="16" t="s">
-        <v>8</v>
-      </c>
+      <c r="F22" s="15"/>
     </row>
     <row r="23" spans="1:6" s="12" customFormat="1" ht="45">
-      <c r="A23" s="16"/>
+      <c r="A23" s="15"/>
       <c r="B23" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="16"/>
+      <c r="C23" s="15"/>
       <c r="D23" s="4" t="s">
         <v>69</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F23" s="16" t="s">
-        <v>9</v>
-      </c>
+      <c r="F23" s="15"/>
     </row>
     <row r="24" spans="1:6" s="12" customFormat="1" ht="98">
-      <c r="A24" s="16"/>
+      <c r="A24" s="15"/>
       <c r="B24" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="16"/>
+      <c r="C24" s="15"/>
       <c r="D24" s="4" t="s">
         <v>71</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F24" s="16" t="s">
-        <v>8</v>
-      </c>
+      <c r="F24" s="15"/>
     </row>
     <row r="25" spans="1:6" s="12" customFormat="1" ht="84">
-      <c r="A25" s="16"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="16"/>
+      <c r="C25" s="15"/>
       <c r="D25" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="F25" s="16" t="s">
-        <v>11</v>
-      </c>
+      <c r="F25" s="15"/>
     </row>
     <row r="26" spans="1:6" s="12" customFormat="1" ht="84">
-      <c r="A26" s="16"/>
+      <c r="A26" s="15"/>
       <c r="B26" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="16"/>
+      <c r="C26" s="15"/>
       <c r="D26" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="F26" s="16" t="s">
-        <v>8</v>
-      </c>
+      <c r="F26" s="15"/>
     </row>
     <row r="27" spans="1:6" s="12" customFormat="1" ht="28">
-      <c r="A27" s="16"/>
+      <c r="A27" s="15"/>
       <c r="B27" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="16"/>
+      <c r="C27" s="15"/>
       <c r="D27" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="F27" s="16" t="s">
-        <v>8</v>
-      </c>
+      <c r="F27" s="15"/>
     </row>
     <row r="28" spans="1:6" s="12" customFormat="1" ht="56">
-      <c r="A28" s="16"/>
+      <c r="A28" s="15"/>
       <c r="B28" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="16"/>
+      <c r="C28" s="15"/>
       <c r="D28" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="F28" s="16" t="s">
-        <v>8</v>
-      </c>
+      <c r="F28" s="15"/>
     </row>
     <row r="29" spans="1:6" s="12" customFormat="1" ht="70">
-      <c r="A29" s="16"/>
+      <c r="A29" s="15"/>
       <c r="B29" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="16"/>
+      <c r="C29" s="15"/>
       <c r="D29" s="4" t="s">
         <v>80</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F29" s="16" t="s">
-        <v>8</v>
-      </c>
+      <c r="F29" s="15"/>
     </row>
     <row r="30" spans="1:6" s="12" customFormat="1" ht="42">
-      <c r="A30" s="16"/>
+      <c r="A30" s="15"/>
       <c r="B30" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="16"/>
+      <c r="C30" s="15"/>
       <c r="D30" s="4" t="s">
         <v>82</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F30" s="16" t="s">
-        <v>8</v>
-      </c>
+      <c r="F30" s="15"/>
     </row>
     <row r="31" spans="1:6" s="12" customFormat="1" ht="70">
-      <c r="A31" s="16"/>
+      <c r="A31" s="15"/>
       <c r="B31" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="16"/>
+      <c r="C31" s="15"/>
       <c r="D31" s="4" t="s">
         <v>85</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="F31" s="16" t="s">
-        <v>8</v>
-      </c>
+      <c r="F31" s="15"/>
     </row>
     <row r="32" spans="1:6" s="12" customFormat="1" ht="98">
-      <c r="A32" s="16"/>
+      <c r="A32" s="15"/>
       <c r="B32" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="16"/>
+      <c r="C32" s="15"/>
       <c r="D32" s="4" t="s">
         <v>86</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="F32" s="16" t="s">
-        <v>8</v>
-      </c>
+      <c r="F32" s="15"/>
     </row>
     <row r="33" spans="1:6" s="12" customFormat="1" ht="70">
-      <c r="A33" s="16"/>
+      <c r="A33" s="15"/>
       <c r="B33" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="16"/>
+      <c r="C33" s="15"/>
       <c r="D33" s="4" t="s">
         <v>95</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F33" s="16" t="s">
-        <v>8</v>
-      </c>
+      <c r="F33" s="15"/>
     </row>
     <row r="34" spans="1:6" s="12" customFormat="1" ht="42">
-      <c r="A34" s="16"/>
+      <c r="A34" s="15"/>
       <c r="B34" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="16"/>
+      <c r="C34" s="15"/>
       <c r="D34" s="4" t="s">
         <v>94</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F34" s="16" t="s">
-        <v>8</v>
-      </c>
+      <c r="F34" s="15"/>
     </row>
     <row r="35" spans="1:6" s="12" customFormat="1" ht="70">
-      <c r="A35" s="16"/>
+      <c r="A35" s="15"/>
       <c r="B35" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C35" s="16"/>
+      <c r="C35" s="15"/>
       <c r="D35" s="4" t="s">
         <v>93</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F35" s="16" t="s">
-        <v>8</v>
-      </c>
+      <c r="F35" s="15"/>
     </row>
     <row r="36" spans="1:6" s="12" customFormat="1" ht="70">
-      <c r="A36" s="16"/>
+      <c r="A36" s="15"/>
       <c r="B36" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="16"/>
+      <c r="C36" s="15"/>
       <c r="D36" s="4" t="s">
         <v>96</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F36" s="16" t="s">
-        <v>8</v>
-      </c>
+      <c r="F36" s="15"/>
     </row>
     <row r="37" spans="1:6" s="12" customFormat="1" ht="98">
-      <c r="A37" s="16"/>
+      <c r="A37" s="15"/>
       <c r="B37" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="C37" s="16"/>
+      <c r="C37" s="15"/>
       <c r="D37" s="4" t="s">
         <v>98</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F37" s="16" t="s">
-        <v>8</v>
-      </c>
+      <c r="F37" s="15"/>
     </row>
     <row r="38" spans="1:6" s="12" customFormat="1" ht="30">
-      <c r="A38" s="16"/>
+      <c r="A38" s="15"/>
       <c r="B38" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="16"/>
+      <c r="C38" s="15"/>
       <c r="D38" s="4" t="s">
         <v>101</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="F38" s="16" t="s">
-        <v>8</v>
-      </c>
+      <c r="F38" s="15"/>
     </row>
     <row r="39" spans="1:6" s="12" customFormat="1" ht="28">
-      <c r="A39" s="16"/>
+      <c r="A39" s="15"/>
       <c r="B39" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="16"/>
+      <c r="C39" s="15"/>
       <c r="D39" s="4" t="s">
         <v>103</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F39" s="16" t="s">
-        <v>8</v>
-      </c>
+      <c r="F39" s="15"/>
     </row>
     <row r="40" spans="1:6" s="12" customFormat="1" ht="70">
-      <c r="A40" s="16"/>
+      <c r="A40" s="15"/>
       <c r="B40" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="C40" s="16"/>
+      <c r="C40" s="15"/>
       <c r="D40" s="4" t="s">
         <v>107</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="F40" s="16" t="s">
-        <v>8</v>
-      </c>
+      <c r="F40" s="15"/>
     </row>
     <row r="41" spans="1:6" s="12" customFormat="1" ht="84">
-      <c r="A41" s="16"/>
+      <c r="A41" s="15"/>
       <c r="B41" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C41" s="16"/>
+      <c r="C41" s="15"/>
       <c r="D41" s="4" t="s">
         <v>109</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F41" s="16" t="s">
-        <v>8</v>
-      </c>
+      <c r="F41" s="15"/>
     </row>
     <row r="42" spans="1:6" s="12" customFormat="1" ht="28">
-      <c r="A42" s="16"/>
+      <c r="A42" s="15"/>
       <c r="B42" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="16"/>
+      <c r="C42" s="15"/>
       <c r="D42" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="F42" s="16" t="s">
-        <v>8</v>
-      </c>
+      <c r="F42" s="15"/>
     </row>
     <row r="43" spans="1:6" s="12" customFormat="1" ht="42">
-      <c r="A43" s="16"/>
+      <c r="A43" s="15"/>
       <c r="B43" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="16"/>
+      <c r="C43" s="15"/>
       <c r="D43" s="4" t="s">
         <v>112</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="F43" s="16" t="s">
-        <v>8</v>
-      </c>
+      <c r="F43" s="15"/>
     </row>
     <row r="44" spans="1:6" s="12" customFormat="1" ht="70">
-      <c r="A44" s="16"/>
+      <c r="A44" s="15"/>
       <c r="B44" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="16"/>
+      <c r="C44" s="15"/>
       <c r="D44" s="4" t="s">
         <v>114</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="F44" s="16" t="s">
-        <v>8</v>
-      </c>
+      <c r="F44" s="15"/>
     </row>
     <row r="45" spans="1:6" s="12" customFormat="1" ht="70">
-      <c r="A45" s="16"/>
+      <c r="A45" s="15"/>
       <c r="B45" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C45" s="16"/>
+      <c r="C45" s="15"/>
       <c r="D45" s="4" t="s">
         <v>117</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="F45" s="16" t="s">
-        <v>8</v>
-      </c>
+      <c r="F45" s="15"/>
     </row>
     <row r="46" spans="1:6" s="12" customFormat="1" ht="98">
-      <c r="A46" s="16"/>
+      <c r="A46" s="15"/>
       <c r="B46" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C46" s="16"/>
+      <c r="C46" s="15"/>
       <c r="D46" s="4" t="s">
         <v>119</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="F46" s="16" t="s">
-        <v>8</v>
-      </c>
+      <c r="F46" s="15"/>
     </row>
     <row r="47" spans="1:6" s="12" customFormat="1" ht="126">
-      <c r="A47" s="16"/>
+      <c r="A47" s="15"/>
       <c r="B47" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="16"/>
+      <c r="C47" s="15"/>
       <c r="D47" s="4" t="s">
         <v>121</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="F47" s="16" t="s">
-        <v>8</v>
-      </c>
+      <c r="F47" s="15"/>
     </row>
     <row r="48" spans="1:6" s="12" customFormat="1" ht="42">
-      <c r="A48" s="16"/>
+      <c r="A48" s="15"/>
       <c r="B48" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C48" s="16"/>
+      <c r="C48" s="15"/>
       <c r="D48" s="4" t="s">
         <v>123</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F48" s="16" t="s">
-        <v>8</v>
-      </c>
+      <c r="F48" s="15"/>
     </row>
     <row r="49" spans="1:6" s="12" customFormat="1" ht="112">
-      <c r="A49" s="16"/>
+      <c r="A49" s="15"/>
       <c r="B49" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C49" s="16"/>
+      <c r="C49" s="15"/>
       <c r="D49" s="4" t="s">
         <v>125</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="F49" s="16" t="s">
-        <v>8</v>
-      </c>
+      <c r="F49" s="15"/>
     </row>
     <row r="50" spans="1:6" s="12" customFormat="1" ht="70">
-      <c r="A50" s="16"/>
+      <c r="A50" s="15"/>
       <c r="B50" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C50" s="16"/>
+      <c r="C50" s="15"/>
       <c r="D50" s="4" t="s">
         <v>127</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="F50" s="16" t="s">
-        <v>9</v>
-      </c>
+      <c r="F50" s="15"/>
     </row>
     <row r="51" spans="1:6" s="12" customFormat="1" ht="70">
-      <c r="A51" s="16"/>
+      <c r="A51" s="15"/>
       <c r="B51" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C51" s="16"/>
+      <c r="C51" s="15"/>
       <c r="D51" s="4" t="s">
         <v>129</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="F51" s="16" t="s">
-        <v>9</v>
-      </c>
+      <c r="F51" s="15"/>
     </row>
     <row r="52" spans="1:6" s="12" customFormat="1" ht="112">
-      <c r="A52" s="16"/>
+      <c r="A52" s="15"/>
       <c r="B52" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C52" s="16"/>
+      <c r="C52" s="15"/>
       <c r="D52" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="F52" s="16" t="s">
-        <v>10</v>
-      </c>
+      <c r="F52" s="15"/>
     </row>
     <row r="53" spans="1:6" s="12" customFormat="1" ht="98">
-      <c r="A53" s="16"/>
+      <c r="A53" s="15"/>
       <c r="B53" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="C53" s="16"/>
+      <c r="C53" s="15"/>
       <c r="D53" s="4" t="s">
         <v>137</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="F53" s="16" t="s">
-        <v>8</v>
-      </c>
+      <c r="F53" s="15"/>
     </row>
     <row r="54" spans="1:6" s="12" customFormat="1" ht="126">
-      <c r="A54" s="16"/>
+      <c r="A54" s="15"/>
       <c r="B54" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="C54" s="16"/>
+      <c r="C54" s="15"/>
       <c r="D54" s="4" t="s">
         <v>139</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F54" s="16" t="s">
-        <v>8</v>
-      </c>
+      <c r="F54" s="15"/>
     </row>
     <row r="55" spans="1:6" s="12" customFormat="1" ht="84">
-      <c r="A55" s="16"/>
+      <c r="A55" s="15"/>
       <c r="B55" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="C55" s="16"/>
+      <c r="C55" s="15"/>
       <c r="D55" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F55" s="16" t="s">
-        <v>8</v>
-      </c>
+      <c r="F55" s="15"/>
     </row>
     <row r="56" spans="1:6" s="12" customFormat="1" ht="30">
-      <c r="A56" s="16"/>
+      <c r="A56" s="15"/>
       <c r="B56" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C56" s="16"/>
+      <c r="C56" s="15"/>
       <c r="D56" s="4" t="s">
         <v>143</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="F56" s="16" t="s">
-        <v>8</v>
-      </c>
+      <c r="F56" s="15"/>
     </row>
     <row r="57" spans="1:6" s="12" customFormat="1" ht="70">
-      <c r="A57" s="16"/>
+      <c r="A57" s="15"/>
       <c r="B57" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C57" s="16"/>
+      <c r="C57" s="15"/>
       <c r="D57" s="4" t="s">
         <v>145</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="F57" s="16" t="s">
-        <v>8</v>
-      </c>
+      <c r="F57" s="15"/>
     </row>
     <row r="58" spans="1:6" s="12" customFormat="1" ht="42">
-      <c r="A58" s="16"/>
+      <c r="A58" s="15"/>
       <c r="B58" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C58" s="16"/>
+      <c r="C58" s="15"/>
       <c r="D58" s="4" t="s">
         <v>130</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="F58" s="16" t="s">
-        <v>8</v>
-      </c>
+      <c r="F58" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Document/report/Testcase.xlsx
+++ b/Document/report/Testcase.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-32980" yWindow="2480" windowWidth="32960" windowHeight="18660"/>
+    <workbookView xWindow="1760" yWindow="0" windowWidth="31800" windowHeight="17840"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="testcase" sheetId="4" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="152">
   <si>
     <t>Test Suite</t>
   </si>
@@ -69,151 +69,6 @@
   </si>
   <si>
     <t>Bug Remaining</t>
-  </si>
-  <si>
-    <t>Thêm mới khách hàng</t>
-  </si>
-  <si>
-    <t>Update thông tin khách hàng.</t>
-  </si>
-  <si>
-    <t>Hiển thị danh sách khách hàng (có chia theo khách hàng thường và khách hàng VIP)</t>
-  </si>
-  <si>
-    <t>Tìm khách hàng theo tên, số điện thoại, số xe sở hữu.</t>
-  </si>
-  <si>
-    <t>Lập phiếu yêu cầu</t>
-  </si>
-  <si>
-    <t>Cập nhật phiếu yêu cầu.</t>
-  </si>
-  <si>
-    <t>Hiển thị các thông tin kiểm tra của xưởng</t>
-  </si>
-  <si>
-    <t>Xem thông tin chi tiết sửa chữa của xe</t>
-  </si>
-  <si>
-    <t>Xem lịch sử sửa chữa xe</t>
-  </si>
-  <si>
-    <t>Hiển thị danh sách các xe có trong garage (chưa sửa, đang sửa, đã sửa) mà chưa thanh toán</t>
-  </si>
-  <si>
-    <t>Tạo hóa đơn trên danh sách những xe đang sửa chữa</t>
-  </si>
-  <si>
-    <t>In hóa đơn.</t>
-  </si>
-  <si>
-    <t>Thống kê doanh thu theo ngày, theo tuần, theo tháng.</t>
-  </si>
-  <si>
-    <t>Hiển thị danh sách các phiếu yêu cầu</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Xem thông tin chi tiết của các xe và yêu cầu sửa chữa.</t>
-    </r>
-  </si>
-  <si>
-    <t>Cập nhật phiếu yêu cầu sửa chữa cho khách hàng</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Cập nhật quá trình kiểm tra với từng xe</t>
-    </r>
-  </si>
-  <si>
-    <t>Xóa phiếu xuất kho.</t>
-  </si>
-  <si>
-    <t>Sửa phiếu xuất kho.</t>
-  </si>
-  <si>
-    <t>Thêm phiếu xuất kho.</t>
-  </si>
-  <si>
-    <t>Tìm kiếm phụ tùng theo tên.</t>
-  </si>
-  <si>
-    <t>Thống kê phụ tùng được yêu cầu nhiều nhất.</t>
-  </si>
-  <si>
-    <t>Hiển thị danh sách nhân viên.</t>
-  </si>
-  <si>
-    <t>Xem thông tin chi tiết nhân viên.</t>
-  </si>
-  <si>
-    <t>Tìm nhân viên theo tên, id, số điện thoại.</t>
-  </si>
-  <si>
-    <t>Thống kê khách hàng theo, tháng, quý, năm.</t>
-  </si>
-  <si>
-    <t>Kiểm tra những chương trình khuyến mãi cho những khách hàng</t>
-  </si>
-  <si>
-    <t>Thêm mới chương trình khuyến mãi.</t>
-  </si>
-  <si>
-    <t>Xóa chương trình khuyến mãi.</t>
-  </si>
-  <si>
-    <t>Xem danh sách các chương trình khuyến mãi</t>
-  </si>
-  <si>
-    <t>Đăng bài lên web chính của hệ thống.</t>
-  </si>
-  <si>
-    <t>Thống kê công nợ theo tháng, quý, năm.</t>
-  </si>
-  <si>
-    <t>Thống kê doanh thu theo tháng, quý, năm.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tính lương cho nhân viên. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thống kê các gói sửa chữa được yêu cầu nhiều nhất, ít nhất. </t>
-  </si>
-  <si>
-    <t>Thống kê số lượng xe sửa chữa theo theo tháng, quý, năm</t>
-  </si>
-  <si>
-    <t>Hiển thị danh sách các gói sửa chữa.</t>
   </si>
   <si>
     <t xml:space="preserve"> Trên trang quản lý danh sách khách hàng: 
@@ -279,55 +134,7 @@
   - Chuyển tới trang danh sách chi tiết khách hàng với nội dung mới </t>
   </si>
   <si>
-    <t xml:space="preserve">Trên trang quản lý các xe sửa chữa tại gara 
- - Click vào một chiếc xe trong danh sách đang sửa 
-    =&gt; Trang chi tiết sữa chữa của xe đó được hiển thị 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trên trang quản lý các xe sửa chữa tại gara 
- - Click vào một chiếc xe trong danh sách đang sửa 
-    =&gt; Trang chi tiết sữa chữa của xe đó được hiển thị 
- - Click vào nút xem lịch sử sữa chữa . </t>
-  </si>
-  <si>
-    <t xml:space="preserve">thông tin chi tiết sửa chữa của xe đó được hiển thị </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lịch sử sửa chữa của xe đó được hiển thị theo thứ tự thời gian giảm dần </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Click vào menu quản lý
- - Click vào chức năng quản lý xe </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Danh sách các xe có tình trang là chưa sửa chữa/ đang sửa chữa hoặc đã sửa chữa mà chưa thanh toán được hiển thị</t>
-  </si>
-  <si>
-    <t>Trên trang quản lý xe: 
- - Click vào xe đang sửa. 
-  =&gt; trang chi tiết sửa chữa được hiển thị. 
- - Click vào nút lập hoá đơn 
-   =&gt; trang lập hoá đơn mới được hiển thị 
- - điền thông tin 
- - Click vào nút lưu</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Hệ thống thông báo đã tạo hoá đơn thành công 
- - hiển thị trang chi tiết của hoá đơn mới</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Trên trang hoá đơn mới: 
- - Click vào nút in hoá đơn 
-  =&gt; trang preview hiền thị 
- - Click vào nút in 
-</t>
-  </si>
-  <si>
     <t xml:space="preserve"> - Hệ thống kết nối với máy in và in hoá đơn </t>
-  </si>
-  <si>
-    <t>trang danh sách phiếu yêu cầu được hiển thị</t>
   </si>
   <si>
     <t xml:space="preserve"> - Click vào menu quản lý
@@ -345,41 +152,8 @@
     <t xml:space="preserve"> - thông tin doanh thu của gara được hiển thị</t>
   </si>
   <si>
-    <t xml:space="preserve">Trên trang quản lý các xe sửa chữa tại gara 
- - Click vào một chiếc xe trong danh sách đang sửa 
-    =&gt; Trang chi tiết  sửa chữa của xe đó được hiển thị 
-</t>
-  </si>
-  <si>
-    <t>Trên trang chi tiếu phiếu yêu cầu 
- - Click vào nút cập nhật 
-  =&gt; trang cập nhật phiếu yêu cầu được hiển thị 
- - thay đổi thông tin phiếu yêu cầu 
- - click vào nút lưu</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Hệ thống thông báo đã cập nhật thành công. 
- - hiển thị trang chi tiết phiếu cầu của khách hàng đó với nội dung mới </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trên trang quản lý xe: 
- - Thay đổi tinh trạng của xe 
- - Click vào nút save </t>
-  </si>
-  <si>
     <t xml:space="preserve"> - Hệ thống thông báo đã cập nhật thành công 
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Hệ thống thông báo đã xoá thành công 
- - Cập nhật lại danh sách phiếu xuất trên trang quản lý</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trên trang quản lý kho 
- - Chọn phiếu xuất kho 
- - Click nút xoá
-  =&gt; bảng cảnh báo "bạn chắc chắn muốn xoá?" được hiển thị 
- - Click vào nút đồng ý </t>
   </si>
   <si>
     <t>Trên trang quản lý kho 
@@ -398,15 +172,6 @@
     <t xml:space="preserve"> - Hiển thị danh phụ tùng có tên có chứa từ khoá trong ô tìm kiếm </t>
   </si>
   <si>
-    <t>Thêm thông tin phụ tùng.</t>
-  </si>
-  <si>
-    <t>Xóa thông tin phụ tùng.</t>
-  </si>
-  <si>
-    <t>Sửa thông tin phụ tùng.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> - Hệ thống thông báo thêm mới thành công 
  - Hiển thị chi tiết phụ tùng mới thêm</t>
   </si>
@@ -472,23 +237,6 @@
     <t>Trang quản lý nhân viên được hiển thị với danh nhân viên của gara theo thứ tự ABC</t>
   </si>
   <si>
-    <t xml:space="preserve">Thêm nhân viên </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cập nhật nhân viên </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trên trang quản lý nhân viên 
- - Clik vào nút thêm mới 
-  =&gt; Hiển thị trang thêm mới một nhân viên 
- - Điền thông tin vào 
- - Click vào nút lưu </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Hệ thống thông báo thêm mới thành công 
- - Hiển thị thôn tin chi tiết của nhân viên mới thêm</t>
-  </si>
-  <si>
     <t xml:space="preserve">Trên trang quản lý nhân viên 
  - Chọn nhân iên muốn cập nhật
  -Click vào nút cập nhật 
@@ -505,36 +253,7 @@
  - Double click vào nhân viên mún xem </t>
   </si>
   <si>
-    <t xml:space="preserve">Trên trang quản lý nhân viên 
- - nhập tên/ số điện thoại/ id của nhân viên vào ô tìm kiếm. 
- - click vào nút tìm kiếm </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Hiển thị danh sách nhân viên có thông tin tương ứng </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Click vào menu thống kê. 
-- Click vào chức năng thống kê khách hàng 
-   =&gt; trang thống kê khách hàng hiển thị 
-- Chọn khoản thời gian muốn thống kê 
-- Click vào nút xem </t>
-  </si>
-  <si>
     <t xml:space="preserve"> - Trang thông tin chi tiết của nhân viên đó được hiển thị</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Hiển thị danh sách các khách hàng đã tới sữa chữa trong khoảng thời gian đó </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Click vào menu Quản lý 
-- Click vào chức năng quản lý chương trình khuyến mãi 
-   =&gt; hệ thống hiển thị danh sách  các khuyến mãi 
-- Click vào 1 chương trình khuyến mãi bất kì. 
-   =&gt;trang chi tiết khuyến mãi được hiển thị </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Hiển thị chi tiết nội dung khuyến mãi 
- - Hiển thị danh sách các khách hàng được khuyến mãi đó</t>
   </si>
   <si>
     <t xml:space="preserve"> - Trên trang quản lý chương trình khuyến mãi 
@@ -564,28 +283,6 @@
  - Cập nhật lại danh sách chương trình khuyến mãi</t>
   </si>
   <si>
-    <t xml:space="preserve"> - Click vào menu Quản lý 
-- Click vào chức năng quản lý chương trình khuyến mãi 
-   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Danh sách các chương trình khuyến mãi được hiển thị theo thứ tự thời gian từ mới nhất đến cũ nhất.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - click vào menu quản lý 
- - Chọn chức năng quản lý bài post
-  =&gt; Trang quản lý bài post được hiển thị 
- - Click vào nút thêm  
-  =&gt; Trang thêm mới được hiển thị
- - Điền thông tin vào 
- - Click vào nút Lưu
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Hệ thống thông báo thêm mới thành công 
- - Hiển thị chi tiết bài post mới thêm.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> - Click vào menu thống kê. 
 - Click vào chức năng thống kê công nợ 
    =&gt; trang thống kê công nợ hiển thị 
@@ -602,23 +299,6 @@
    =&gt; trang thống kê doanh thu hiển thị 
 - Chọn khoản thời gian muốn thống kê 
 - Click vào nút xem </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Click vào menu Quản lý 
-- Click vào chức năng quản lý các gói sửa chữa
-   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Danh sách các gói sửa chữa được hiển thị theo thứ tự thời gian từ mới nhất đến cũ nhất.</t>
-  </si>
-  <si>
-    <t>Thêm mới sửa các gói sửa chữa.</t>
-  </si>
-  <si>
-    <t>Xóa các gói sửa chữa.</t>
-  </si>
-  <si>
-    <t>Sửa các gói sửa chữa.</t>
   </si>
   <si>
     <t xml:space="preserve"> - Click vào menu Quản lý 
@@ -678,26 +358,288 @@
     <t xml:space="preserve"> - Danh sách các gói sữa chữa theo thứ tự được yêu cầu nhiều nhất đến ít nhất.</t>
   </si>
   <si>
-    <t xml:space="preserve"> - Click vào menu thống kê. 
-- Click vào chức năng thống kê số lượng xe sửa chữa
-   =&gt; trang thống kê số lượng xe sửa chữa hiển thị 
-- Chọn khoản thời gian muốn thống kê 
-- Click vào nút xem </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  - Hiển thị danh sách số lượng xe sửa chữa trong khoảng thời gian đó.
- - Hiển thị tổng số lượng đến sửa chữa.</t>
-  </si>
-  <si>
     <t xml:space="preserve">  - Hiển thị danh sách các doanh thu trong khoảng thời gian đó.
  - Hiển thị tổng thu chi, lời lãi, lỗ </t>
+  </si>
+  <si>
+    <t>tìm kiếm nhân viên</t>
+  </si>
+  <si>
+    <t>cập nhật thông tin</t>
+  </si>
+  <si>
+    <t>xem thông tin chi tiết nhân viên</t>
+  </si>
+  <si>
+    <t>xem danh sách nhân viên</t>
+  </si>
+  <si>
+    <t>tính lương cho nhân viên</t>
+  </si>
+  <si>
+    <t>thêm mới</t>
+  </si>
+  <si>
+    <t>Xóa</t>
+  </si>
+  <si>
+    <t>thêm mới phụ tùng</t>
+  </si>
+  <si>
+    <t>xóa phụ tùng</t>
+  </si>
+  <si>
+    <t>tìm kiếm phụ tùng</t>
+  </si>
+  <si>
+    <t>xem danh sách phụ tùng.</t>
+  </si>
+  <si>
+    <t>công nợ</t>
+  </si>
+  <si>
+    <t>gói sửa chữa</t>
+  </si>
+  <si>
+    <t>doanh thu (tháng/ quý/ năm)</t>
+  </si>
+  <si>
+    <t>xóa gói</t>
+  </si>
+  <si>
+    <t>cập nhật quá trình sửa chữa</t>
+  </si>
+  <si>
+    <t>thêm mới phiếu xuất kho</t>
+  </si>
+  <si>
+    <t>sửa phiếu xuất kho</t>
+  </si>
+  <si>
+    <t>cập nhật phiếu yêu cầu</t>
+  </si>
+  <si>
+    <t>thêm mới khách hàng</t>
+  </si>
+  <si>
+    <t>update thông tin khách hàng</t>
+  </si>
+  <si>
+    <t>xem thông tin chi tiết khách hàng</t>
+  </si>
+  <si>
+    <t>tìm khách hàng</t>
+  </si>
+  <si>
+    <t>xem danh sách khách hàng</t>
+  </si>
+  <si>
+    <t>nhận phản hồi từ khách hàng</t>
+  </si>
+  <si>
+    <t>xuất hóa đơn dựa trên phiếu yêu cầu sửa chữa</t>
+  </si>
+  <si>
+    <t>tạo mới phiếu yêu cầu</t>
+  </si>
+  <si>
+    <t>tìm phiếu yêu cầu</t>
+  </si>
+  <si>
+    <t>thống kê doanh thu theo ngày, tuần.</t>
+  </si>
+  <si>
+    <t>tìm CTKM</t>
+  </si>
+  <si>
+    <t>tìm kiếm gói sửa chữa</t>
+  </si>
+  <si>
+    <t>đăng nhập</t>
+  </si>
+  <si>
+    <t>xem danh sách phiếu yêu cầu</t>
+  </si>
+  <si>
+    <t>xem chi tiết phiếu yêu cầu</t>
+  </si>
+  <si>
+    <t>xem danh sách gói sửa chữa</t>
+  </si>
+  <si>
+    <t>xem chi tiết gói sửa chữa</t>
+  </si>
+  <si>
+    <t>xem danh sách phụ tùng</t>
+  </si>
+  <si>
+    <t>xem chi tiết phụ tùng</t>
+  </si>
+  <si>
+    <t>xem danh sách CTKM</t>
+  </si>
+  <si>
+    <t>xem chi tiết CTKM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login với tài khoản có quyền quản lý nhân viên </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trên trang quản lý nhân viên: 
+ - nhập tên nhân viên vào ô tìm kiếm 
+ - click vào nút tìm kiếm </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Hiển thị danh sách nhân viên có tên giống vậy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quản lý chương trình khuyến mãi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quản lý nhân viên </t>
+  </si>
+  <si>
+    <t>Quản lý phụ tùng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thống kê </t>
+  </si>
+  <si>
+    <t>Quản lý kho</t>
+  </si>
+  <si>
+    <t>Quản lý khách hàng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trên trang quản lý xe: 
+ - Chọn xe 
+ - Thay đổi tinh trạng của xe 
+ - Click vào nút save </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trên trang quản lý khách hàng: 
+ - Double click vào khách hàng muón xem trong danh sách  
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Hiển thị chi tiết thông tin  khách hàng được chọn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Trên trang chi tiếu phiếu yêu cầu  
+ - Click vào nút xuất hoá đơn
+  =&gt; trang preview hiền thị 
+ - Click vào nút in 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trên trang quản lý phiếu yêu cầu 
+ - Nhập mã phiếu yêu cầu hoặc thông tin xe, khách hàng 
+ - Click vào nút tìm kiếm </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Hiển thị danh sách các phiếu yêu cầu có thông tin có chúa thông tin tìm kiếm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trên trang quản lý chương trình khuyếm mãi: 
+ - Nhập tên chương trình khuyến mãi cần kiếm vào ô tìm kiếm. 
+ - Click vào nút tìm kiếm </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Hiển thị danh sách các chương trình khuyến mãi có tên có chứa từ khoá trong ô tìm kiếm </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Click vào nút đăng nhập trên đầu trang 
+ - nhập thông tin tài khoản đã đăng ký
+ - Click vào nút đăng nhập</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đăng nhập thành công, nút logout được hiển thị và nút đăng nhập bị ẩn </t>
+  </si>
+  <si>
+    <t>trang chi tiết phiếu yêu cầu được chọn được  hiển thị</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Danh sách các phiếu yêu cầu được hiển thị </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Danh sách các phụ tùng được hiển thị.</t>
+  </si>
+  <si>
+    <t>trang chi tiết gói sửa chữa được chọn được  hiển thị</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Click vào menu Quản lý 
+- Click vào chức năng quản lý gói sửa chữa
+   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Danh sách các gói sửa chữa được hiển thị.</t>
+  </si>
+  <si>
+    <t>trang chi tiết phụ tùng được chọn được  hiển thị</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Click vào menu danh sách  
+- Click vào chức năng chương trình khuyến mãi 
+   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Danh sách các chương trình khuyến mãi được hiển thị.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trên trang danh sách phụ tùng 
+ - Double click vào phụ tùng được chọn 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Click vào menu danh sách 
+- Click vào chức năng quản lý phụ tùng
+   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trên trang danh sách các phiếu yêu cầu: 
+ - Double click vào một phiếu yêu cầu 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trên trang danh sách gói sửa chữa : 
+ - Double click vào một gói sửa chữa trong danh sách 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Click vào mục khác 
+ - Click vào chức năng danh sách phản hồi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị danh sách các phải hồi của khách hàng </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login với tài khoản có quyền quản lý chương trình khuyến mãi </t>
+  </si>
+  <si>
+    <t>Login với tài khoản có quyền thống kê</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quản lý gói sửa chữa </t>
+  </si>
+  <si>
+    <t>Login với tài khoản có quyền quản lý gói sửa chữa</t>
+  </si>
+  <si>
+    <t>Login với tài khoản có quyền quản lý kho</t>
+  </si>
+  <si>
+    <t>Login với tài khoản có quyền quản lý khách hàng</t>
+  </si>
+  <si>
+    <t>Login với tài khoản nhân viên bình thường</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -750,12 +692,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="7"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -834,104 +770,212 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="95">
+  <cellStyleXfs count="203">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -976,11 +1020,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="95">
+  <cellStyles count="203">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1028,6 +1081,60 @@
     <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1075,6 +1182,60 @@
     <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1376,8 +1537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14:F58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1393,10 +1554,10 @@
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="16"/>
+      <c r="E1" s="19"/>
       <c r="F1" s="4"/>
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
@@ -1428,7 +1589,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="8">
-        <f>COUNTIF(F13:F738,D3)</f>
+        <f>COUNTIF(F13:F735,D3)</f>
         <v>0</v>
       </c>
       <c r="F3" s="4"/>
@@ -1445,7 +1606,7 @@
         <v>9</v>
       </c>
       <c r="E4" s="10">
-        <f>COUNTIF(F14:F739,D4)</f>
+        <f>COUNTIF(F14:F736,D4)</f>
         <v>0</v>
       </c>
       <c r="F4" s="4"/>
@@ -1462,7 +1623,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="8">
-        <f>COUNTIF(F14:F740,D5)</f>
+        <f>COUNTIF(F14:F737,D5)</f>
         <v>0</v>
       </c>
       <c r="F5" s="4"/>
@@ -1479,7 +1640,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="8">
-        <f>COUNTIF(F14:F741,D6)</f>
+        <f>COUNTIF(F14:F738,D6)</f>
         <v>0</v>
       </c>
       <c r="F6" s="4"/>
@@ -1567,635 +1728,683 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="12" customFormat="1" ht="56">
-      <c r="A14" s="15"/>
+    <row r="14" spans="1:10" s="12" customFormat="1" ht="42">
+      <c r="A14" s="17" t="s">
+        <v>115</v>
+      </c>
       <c r="B14" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="15"/>
+        <v>71</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>111</v>
+      </c>
       <c r="D14" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F14" s="15"/>
+    </row>
+    <row r="15" spans="1:10" s="12" customFormat="1" ht="84">
+      <c r="A15" s="17"/>
+      <c r="B15" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="17"/>
+      <c r="D15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="15"/>
+    </row>
+    <row r="16" spans="1:10" s="12" customFormat="1" ht="28">
+      <c r="A16" s="17"/>
+      <c r="B16" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="17"/>
+      <c r="D16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="15"/>
+    </row>
+    <row r="17" spans="1:6" s="12" customFormat="1" ht="28">
+      <c r="A17" s="17"/>
+      <c r="B17" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="D17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="15"/>
+    </row>
+    <row r="18" spans="1:6" s="12" customFormat="1" ht="112">
+      <c r="A18" s="17"/>
+      <c r="B18" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="15"/>
+    </row>
+    <row r="19" spans="1:6" s="12" customFormat="1" ht="98">
+      <c r="A19" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F14" s="15"/>
-    </row>
-    <row r="15" spans="1:10" s="12" customFormat="1" ht="98">
-      <c r="A15" s="15"/>
-      <c r="B15" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="4" t="s">
+      <c r="E19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" s="15"/>
+    </row>
+    <row r="20" spans="1:6" s="12" customFormat="1" ht="126">
+      <c r="A20" s="16"/>
+      <c r="B20" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="15"/>
+    </row>
+    <row r="21" spans="1:6" s="12" customFormat="1" ht="70">
+      <c r="A21" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="15"/>
+    </row>
+    <row r="22" spans="1:6" s="12" customFormat="1" ht="70">
+      <c r="A22" s="17"/>
+      <c r="B22" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="15"/>
+    </row>
+    <row r="23" spans="1:6" s="12" customFormat="1" ht="42">
+      <c r="A23" s="17"/>
+      <c r="B23" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="17"/>
+      <c r="D23" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="15"/>
+    </row>
+    <row r="24" spans="1:6" s="12" customFormat="1" ht="28">
+      <c r="A24" s="17"/>
+      <c r="B24" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="17"/>
+      <c r="D24" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="15"/>
+    </row>
+    <row r="25" spans="1:6" s="12" customFormat="1" ht="98">
+      <c r="A25" s="17"/>
+      <c r="B25" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="17"/>
+      <c r="D25" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="15"/>
+    </row>
+    <row r="26" spans="1:6" s="12" customFormat="1" ht="70">
+      <c r="A26" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" s="15"/>
+    </row>
+    <row r="27" spans="1:6" s="12" customFormat="1" ht="28">
+      <c r="A27" s="18"/>
+      <c r="B27" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="17"/>
+      <c r="D27" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F27" s="15"/>
+    </row>
+    <row r="28" spans="1:6" s="12" customFormat="1" ht="84">
+      <c r="A28" s="18"/>
+      <c r="B28" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="17"/>
+      <c r="D28" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="15"/>
+    </row>
+    <row r="29" spans="1:6" s="12" customFormat="1" ht="98">
+      <c r="A29" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" s="15"/>
+    </row>
+    <row r="30" spans="1:6" s="12" customFormat="1" ht="84">
+      <c r="A30" s="18"/>
+      <c r="B30" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="17"/>
+      <c r="D30" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30" s="15"/>
+    </row>
+    <row r="31" spans="1:6" s="12" customFormat="1" ht="126">
+      <c r="A31" s="18"/>
+      <c r="B31" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="17"/>
+      <c r="D31" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="15"/>
-    </row>
-    <row r="16" spans="1:10" s="12" customFormat="1" ht="45">
-      <c r="A16" s="15"/>
-      <c r="B16" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="15"/>
-    </row>
-    <row r="17" spans="1:6" s="12" customFormat="1" ht="42">
-      <c r="A17" s="15"/>
-      <c r="B17" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F17" s="15"/>
-    </row>
-    <row r="18" spans="1:6" s="12" customFormat="1" ht="70">
-      <c r="A18" s="15"/>
-      <c r="B18" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F18" s="15"/>
-    </row>
-    <row r="19" spans="1:6" s="12" customFormat="1" ht="84">
-      <c r="A19" s="15"/>
-      <c r="B19" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F19" s="15"/>
-    </row>
-    <row r="20" spans="1:6" s="12" customFormat="1" ht="30">
-      <c r="A20" s="15"/>
-      <c r="B20" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-    </row>
-    <row r="21" spans="1:6" s="12" customFormat="1" ht="56">
-      <c r="A21" s="15"/>
-      <c r="B21" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="4" t="s">
+      <c r="E31" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="F21" s="15"/>
-    </row>
-    <row r="22" spans="1:6" s="12" customFormat="1" ht="56">
-      <c r="A22" s="15"/>
-      <c r="B22" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F22" s="15"/>
-    </row>
-    <row r="23" spans="1:6" s="12" customFormat="1" ht="45">
-      <c r="A23" s="15"/>
-      <c r="B23" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F23" s="15"/>
-    </row>
-    <row r="24" spans="1:6" s="12" customFormat="1" ht="98">
-      <c r="A24" s="15"/>
-      <c r="B24" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F24" s="15"/>
-    </row>
-    <row r="25" spans="1:6" s="12" customFormat="1" ht="84">
-      <c r="A25" s="15"/>
-      <c r="B25" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F25" s="15"/>
-    </row>
-    <row r="26" spans="1:6" s="12" customFormat="1" ht="84">
-      <c r="A26" s="15"/>
-      <c r="B26" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F26" s="15"/>
-    </row>
-    <row r="27" spans="1:6" s="12" customFormat="1" ht="28">
-      <c r="A27" s="15"/>
-      <c r="B27" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="F27" s="15"/>
-    </row>
-    <row r="28" spans="1:6" s="12" customFormat="1" ht="56">
-      <c r="A28" s="15"/>
-      <c r="B28" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="F28" s="15"/>
-    </row>
-    <row r="29" spans="1:6" s="12" customFormat="1" ht="70">
-      <c r="A29" s="15"/>
-      <c r="B29" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F29" s="15"/>
-    </row>
-    <row r="30" spans="1:6" s="12" customFormat="1" ht="42">
-      <c r="A30" s="15"/>
-      <c r="B30" s="13" t="s">
+      <c r="F31" s="15"/>
+    </row>
+    <row r="32" spans="1:6" s="12" customFormat="1" ht="56">
+      <c r="A32" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F30" s="15"/>
-    </row>
-    <row r="31" spans="1:6" s="12" customFormat="1" ht="70">
-      <c r="A31" s="15"/>
-      <c r="B31" s="13" t="s">
+      <c r="F32" s="15"/>
+    </row>
+    <row r="33" spans="1:6" s="12" customFormat="1" ht="70">
+      <c r="A33" s="18"/>
+      <c r="B33" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="17"/>
+      <c r="D33" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F33" s="15"/>
+    </row>
+    <row r="34" spans="1:6" s="12" customFormat="1" ht="98">
+      <c r="A34" s="18"/>
+      <c r="B34" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" s="17"/>
+      <c r="D34" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F31" s="15"/>
-    </row>
-    <row r="32" spans="1:6" s="12" customFormat="1" ht="98">
-      <c r="A32" s="15"/>
-      <c r="B32" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F32" s="15"/>
-    </row>
-    <row r="33" spans="1:6" s="12" customFormat="1" ht="70">
-      <c r="A33" s="15"/>
-      <c r="B33" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F33" s="15"/>
-    </row>
-    <row r="34" spans="1:6" s="12" customFormat="1" ht="42">
-      <c r="A34" s="15"/>
-      <c r="B34" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="E34" s="4" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="F34" s="15"/>
     </row>
-    <row r="35" spans="1:6" s="12" customFormat="1" ht="70">
-      <c r="A35" s="15"/>
+    <row r="35" spans="1:6" s="12" customFormat="1" ht="84">
+      <c r="A35" s="18"/>
       <c r="B35" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C35" s="15"/>
+      <c r="C35" s="17"/>
       <c r="D35" s="4" t="s">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="F35" s="15"/>
     </row>
-    <row r="36" spans="1:6" s="12" customFormat="1" ht="70">
-      <c r="A36" s="15"/>
+    <row r="36" spans="1:6" s="12" customFormat="1" ht="56">
+      <c r="A36" s="18" t="s">
+        <v>119</v>
+      </c>
       <c r="B36" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="15"/>
+      <c r="C36" s="17" t="s">
+        <v>150</v>
+      </c>
       <c r="D36" s="4" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="F36" s="15"/>
     </row>
     <row r="37" spans="1:6" s="12" customFormat="1" ht="98">
-      <c r="A37" s="15"/>
+      <c r="A37" s="18"/>
       <c r="B37" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="C37" s="15"/>
+      <c r="C37" s="17"/>
       <c r="D37" s="4" t="s">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="F37" s="15"/>
     </row>
-    <row r="38" spans="1:6" s="12" customFormat="1" ht="30">
-      <c r="A38" s="15"/>
+    <row r="38" spans="1:6" s="12" customFormat="1" ht="42">
+      <c r="A38" s="18"/>
       <c r="B38" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38" s="15"/>
+        <v>92</v>
+      </c>
+      <c r="C38" s="17"/>
       <c r="D38" s="4" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="F38" s="15"/>
     </row>
-    <row r="39" spans="1:6" s="12" customFormat="1" ht="28">
-      <c r="A39" s="15"/>
+    <row r="39" spans="1:6" s="12" customFormat="1" ht="42">
+      <c r="A39" s="18"/>
       <c r="B39" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C39" s="15"/>
+        <v>93</v>
+      </c>
+      <c r="C39" s="17"/>
       <c r="D39" s="4" t="s">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="F39" s="15"/>
     </row>
-    <row r="40" spans="1:6" s="12" customFormat="1" ht="70">
-      <c r="A40" s="15"/>
+    <row r="40" spans="1:6" s="12" customFormat="1" ht="42">
+      <c r="A40" s="18"/>
       <c r="B40" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C40" s="15"/>
+        <v>94</v>
+      </c>
+      <c r="C40" s="17"/>
       <c r="D40" s="4" t="s">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="F40" s="15"/>
     </row>
     <row r="41" spans="1:6" s="12" customFormat="1" ht="84">
       <c r="A41" s="15"/>
       <c r="B41" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C41" s="15"/>
+        <v>96</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>151</v>
+      </c>
       <c r="D41" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>110</v>
+        <v>123</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="F41" s="15"/>
     </row>
     <row r="42" spans="1:6" s="12" customFormat="1" ht="28">
       <c r="A42" s="15"/>
       <c r="B42" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C42" s="15"/>
+        <v>95</v>
+      </c>
+      <c r="C42" s="17"/>
       <c r="D42" s="4" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="F42" s="15"/>
     </row>
-    <row r="43" spans="1:6" s="12" customFormat="1" ht="42">
+    <row r="43" spans="1:6" s="12" customFormat="1" ht="70">
       <c r="A43" s="15"/>
       <c r="B43" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C43" s="15"/>
+        <v>97</v>
+      </c>
+      <c r="C43" s="17"/>
       <c r="D43" s="4" t="s">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="F43" s="15"/>
     </row>
-    <row r="44" spans="1:6" s="12" customFormat="1" ht="70">
+    <row r="44" spans="1:6" s="12" customFormat="1" ht="84">
       <c r="A44" s="15"/>
       <c r="B44" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C44" s="15"/>
+        <v>89</v>
+      </c>
+      <c r="C44" s="17"/>
       <c r="D44" s="4" t="s">
-        <v>114</v>
+        <v>25</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>116</v>
+        <v>26</v>
       </c>
       <c r="F44" s="15"/>
     </row>
-    <row r="45" spans="1:6" s="12" customFormat="1" ht="70">
+    <row r="45" spans="1:6" s="12" customFormat="1" ht="42">
       <c r="A45" s="15"/>
       <c r="B45" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C45" s="15"/>
+        <v>98</v>
+      </c>
+      <c r="C45" s="17"/>
       <c r="D45" s="4" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="F45" s="15"/>
     </row>
-    <row r="46" spans="1:6" s="12" customFormat="1" ht="98">
+    <row r="46" spans="1:6" s="12" customFormat="1" ht="70">
       <c r="A46" s="15"/>
       <c r="B46" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C46" s="15"/>
+        <v>99</v>
+      </c>
+      <c r="C46" s="17"/>
       <c r="D46" s="4" t="s">
-        <v>119</v>
+        <v>59</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="F46" s="15"/>
     </row>
-    <row r="47" spans="1:6" s="12" customFormat="1" ht="126">
+    <row r="47" spans="1:6" s="12" customFormat="1" ht="42">
       <c r="A47" s="15"/>
       <c r="B47" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C47" s="15"/>
+        <v>100</v>
+      </c>
+      <c r="C47" s="17"/>
       <c r="D47" s="4" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="F47" s="15"/>
     </row>
     <row r="48" spans="1:6" s="12" customFormat="1" ht="42">
       <c r="A48" s="15"/>
       <c r="B48" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C48" s="15"/>
+        <v>101</v>
+      </c>
+      <c r="C48" s="17"/>
       <c r="D48" s="4" t="s">
-        <v>123</v>
+        <v>38</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="F48" s="15"/>
     </row>
-    <row r="49" spans="1:6" s="12" customFormat="1" ht="112">
+    <row r="49" spans="1:6" s="12" customFormat="1" ht="42">
       <c r="A49" s="15"/>
       <c r="B49" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C49" s="15"/>
+        <v>102</v>
+      </c>
+      <c r="C49" s="17"/>
       <c r="D49" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F49" s="15"/>
     </row>
-    <row r="50" spans="1:6" s="12" customFormat="1" ht="70">
+    <row r="50" spans="1:6" s="12" customFormat="1" ht="42">
       <c r="A50" s="15"/>
       <c r="B50" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C50" s="15"/>
+        <v>80</v>
+      </c>
+      <c r="C50" s="17"/>
       <c r="D50" s="4" t="s">
-        <v>127</v>
+        <v>38</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>128</v>
+        <v>35</v>
       </c>
       <c r="F50" s="15"/>
     </row>
-    <row r="51" spans="1:6" s="12" customFormat="1" ht="70">
+    <row r="51" spans="1:6" s="12" customFormat="1" ht="28">
       <c r="A51" s="15"/>
       <c r="B51" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C51" s="15"/>
+        <v>103</v>
+      </c>
+      <c r="C51" s="17"/>
       <c r="D51" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>147</v>
+        <v>29</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>131</v>
       </c>
       <c r="F51" s="15"/>
     </row>
-    <row r="52" spans="1:6" s="12" customFormat="1" ht="112">
+    <row r="52" spans="1:6" s="12" customFormat="1" ht="42">
       <c r="A52" s="15"/>
       <c r="B52" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C52" s="15"/>
+        <v>104</v>
+      </c>
+      <c r="C52" s="17"/>
       <c r="D52" s="4" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F52" s="15"/>
     </row>
-    <row r="53" spans="1:6" s="12" customFormat="1" ht="98">
+    <row r="53" spans="1:6" s="12" customFormat="1" ht="42">
       <c r="A53" s="15"/>
       <c r="B53" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C53" s="15"/>
+        <v>105</v>
+      </c>
+      <c r="C53" s="17"/>
       <c r="D53" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F53" s="15"/>
     </row>
-    <row r="54" spans="1:6" s="12" customFormat="1" ht="126">
+    <row r="54" spans="1:6" s="12" customFormat="1" ht="42">
       <c r="A54" s="15"/>
       <c r="B54" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C54" s="17"/>
+      <c r="D54" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E54" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C54" s="15"/>
-      <c r="D54" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>140</v>
-      </c>
       <c r="F54" s="15"/>
     </row>
-    <row r="55" spans="1:6" s="12" customFormat="1" ht="84">
+    <row r="55" spans="1:6" s="12" customFormat="1" ht="42">
       <c r="A55" s="15"/>
       <c r="B55" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="C55" s="15"/>
+        <v>107</v>
+      </c>
+      <c r="C55" s="17"/>
       <c r="D55" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F55" s="15"/>
+    </row>
+    <row r="56" spans="1:6" ht="42">
+      <c r="A56" s="14"/>
+      <c r="B56" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C56" s="17"/>
+      <c r="D56" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="F56" s="14"/>
+    </row>
+    <row r="57" spans="1:6" ht="42">
+      <c r="A57" s="14"/>
+      <c r="B57" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C57" s="17"/>
+      <c r="D57" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F57" s="14"/>
+    </row>
+    <row r="58" spans="1:6" ht="42">
+      <c r="A58" s="14"/>
+      <c r="B58" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C58" s="17"/>
+      <c r="D58" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E55" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="F55" s="15"/>
-    </row>
-    <row r="56" spans="1:6" s="12" customFormat="1" ht="30">
-      <c r="A56" s="15"/>
-      <c r="B56" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C56" s="15"/>
-      <c r="D56" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="F56" s="15"/>
-    </row>
-    <row r="57" spans="1:6" s="12" customFormat="1" ht="70">
-      <c r="A57" s="15"/>
-      <c r="B57" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C57" s="15"/>
-      <c r="D57" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F57" s="15"/>
-    </row>
-    <row r="58" spans="1:6" s="12" customFormat="1" ht="42">
-      <c r="A58" s="15"/>
-      <c r="B58" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C58" s="15"/>
-      <c r="D58" s="4" t="s">
+      <c r="E58" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="E58" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="F58" s="15"/>
+      <c r="F58" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="15">
+    <mergeCell ref="C41:C58"/>
     <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="C36:C40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
